--- a/static/templates_base_financiera/2 ESTRATEGIA Y PLAN DE AUDITORIA/3 ENTENDIMIENTO  CONTROL INTERNO/2 REVISION/2 REVISION DE ACTAS.xlsx
+++ b/static/templates_base_financiera/2 ESTRATEGIA Y PLAN DE AUDITORIA/3 ENTENDIMIENTO  CONTROL INTERNO/2 REVISION/2 REVISION DE ACTAS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\workana\Trabajo Victor Guatemala\auditaPro\auditapro\static\templates_base\2 ESTRATEGIA Y PLAN DE AUDITORIA\3 ENTENDIMIENTO  CONTROL INTERNO\2 REVISION\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\2 ESTRATEGIA Y PLAN DE AUDITORIA\3 ENTENDIMIENTO  CONTROL INTERNO\2 REVISION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A98978-B93F-4BAE-B9C8-9BD0AD65E8CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F23FF9F5-BE2B-46D4-B584-D709F0FA8862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -177,13 +177,13 @@
     <t>Auditoría de Estados Financieros</t>
   </si>
   <si>
-    <t>Del 01 de Enero de 2023 al 31 de Diciembre de 2023</t>
-  </si>
-  <si>
     <t>Entidad XXXXXXX</t>
   </si>
   <si>
     <t xml:space="preserve">PL-3.14 </t>
+  </si>
+  <si>
+    <t>Del 01 de Enero al 31 de Diciembre de 2024</t>
   </si>
 </sst>
 </file>
@@ -620,9 +620,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -714,6 +711,9 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -732,8 +732,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1080,7 +1080,7 @@
   <dimension ref="A2:Z1000"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J31" sqref="J30:J31"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1106,8 +1106,8 @@
     <row r="3" spans="2:9" ht="15" customHeight="1">
       <c r="B3" s="55"/>
       <c r="C3" s="56"/>
-      <c r="H3" s="59" t="s">
-        <v>44</v>
+      <c r="H3" s="52" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="15" customHeight="1">
@@ -1130,11 +1130,11 @@
     </row>
     <row r="7" spans="2:9" ht="15.75">
       <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="4"/>
+      <c r="D7" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
       <c r="H7" s="1" t="s">
         <v>2</v>
       </c>
@@ -1142,11 +1142,11 @@
     </row>
     <row r="8" spans="2:9" ht="15.75">
       <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="5" t="s">
+      <c r="D8" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
       <c r="H8" s="1" t="s">
         <v>1</v>
       </c>
@@ -1154,459 +1154,459 @@
     </row>
     <row r="9" spans="2:9" ht="15.75">
       <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="4"/>
+      <c r="D9" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="7" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
     </row>
     <row r="12" spans="2:9" ht="15.75">
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
     </row>
     <row r="13" spans="2:9" ht="15.75">
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" spans="2:9" ht="15.75">
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="2:9" ht="15.75">
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="2:9" ht="15.75">
-      <c r="B16" s="14"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="2:26" ht="15.75">
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
     </row>
     <row r="18" spans="2:26" ht="23.25" customHeight="1">
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
     </row>
     <row r="19" spans="2:26" ht="15.75" customHeight="1">
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
-      <c r="U19" s="17"/>
-      <c r="V19" s="17"/>
-      <c r="W19" s="17"/>
-      <c r="X19" s="17"/>
-      <c r="Y19" s="17"/>
-      <c r="Z19" s="17"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="16"/>
+      <c r="X19" s="16"/>
+      <c r="Y19" s="16"/>
+      <c r="Z19" s="16"/>
     </row>
     <row r="20" spans="2:26" ht="27.75" customHeight="1">
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
     </row>
     <row r="21" spans="2:26" ht="15" customHeight="1">
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
     </row>
     <row r="22" spans="2:26" ht="15" customHeight="1">
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
     </row>
     <row r="23" spans="2:26" ht="15" customHeight="1">
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
     </row>
     <row r="24" spans="2:26" ht="15" customHeight="1">
-      <c r="B24" s="11"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
     </row>
     <row r="25" spans="2:26" ht="15" customHeight="1">
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
     </row>
     <row r="26" spans="2:26" ht="15" customHeight="1">
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
     </row>
     <row r="27" spans="2:26" ht="19.5" customHeight="1">
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
     </row>
     <row r="28" spans="2:26" ht="16.5" customHeight="1">
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
     </row>
     <row r="29" spans="2:26" ht="16.5" customHeight="1">
-      <c r="B29" s="20"/>
+      <c r="B29" s="19"/>
     </row>
     <row r="30" spans="2:26" ht="19.5" customHeight="1">
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="17" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="31" spans="2:26" ht="15" customHeight="1">
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="32" spans="2:26" ht="15" customHeight="1">
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
     </row>
     <row r="33" spans="2:11" ht="15" customHeight="1">
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B34" s="22"/>
+      <c r="B34" s="21"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B35" s="22"/>
+      <c r="B35" s="21"/>
     </row>
     <row r="36" spans="2:11" ht="27" customHeight="1"/>
     <row r="37" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="23"/>
+      <c r="C37" s="22"/>
     </row>
     <row r="38" spans="2:11" ht="33" customHeight="1">
-      <c r="B38" s="24" t="s">
+      <c r="B38" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="24" t="s">
+      <c r="C38" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D38" s="24" t="s">
+      <c r="D38" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E38" s="24" t="s">
+      <c r="E38" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="F38" s="24" t="s">
+      <c r="F38" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="G38" s="52" t="s">
+      <c r="G38" s="51" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
     </row>
     <row r="40" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
     </row>
     <row r="41" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
     </row>
     <row r="42" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B42" s="26"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
     </row>
     <row r="43" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
     </row>
     <row r="44" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="28"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="27"/>
     </row>
     <row r="45" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B45" s="26"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="30"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="29"/>
     </row>
     <row r="46" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B46" s="26"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="28"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="27"/>
     </row>
     <row r="47" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B47" s="26"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="32"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="31"/>
     </row>
     <row r="48" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B48" s="26"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
     </row>
     <row r="49" spans="2:7" ht="15.75" customHeight="1"/>
     <row r="50" spans="2:7" ht="15.75" customHeight="1"/>
     <row r="51" spans="2:7" ht="18.75" customHeight="1">
-      <c r="B51" s="33" t="s">
+      <c r="B51" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C51" s="33"/>
+      <c r="C51" s="32"/>
     </row>
     <row r="52" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B52" s="34"/>
-      <c r="C52" s="34"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="33"/>
     </row>
     <row r="53" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B53" s="35" t="s">
+      <c r="B53" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="37"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="36"/>
     </row>
     <row r="54" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B54" s="38" t="s">
+      <c r="B54" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C54" s="39"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="39"/>
-      <c r="F54" s="39"/>
-      <c r="G54" s="40"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="39"/>
     </row>
     <row r="55" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B55" s="38" t="s">
+      <c r="B55" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="C55" s="39"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="39"/>
-      <c r="F55" s="39"/>
-      <c r="G55" s="40"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="39"/>
     </row>
     <row r="56" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B56" s="41" t="s">
+      <c r="B56" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="C56" s="39"/>
-      <c r="D56" s="39"/>
-      <c r="E56" s="39"/>
-      <c r="F56" s="39"/>
-      <c r="G56" s="40"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="39"/>
     </row>
     <row r="57" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B57" s="42"/>
-      <c r="C57" s="43"/>
-      <c r="D57" s="43"/>
-      <c r="E57" s="43"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="44"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="42"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="42"/>
+      <c r="F57" s="42"/>
+      <c r="G57" s="43"/>
     </row>
     <row r="58" spans="2:7" ht="15.75" customHeight="1">
       <c r="B58" s="4"/>
@@ -1617,13 +1617,13 @@
       <c r="G58" s="4"/>
     </row>
     <row r="59" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B59" s="45"/>
+      <c r="B59" s="44"/>
     </row>
     <row r="60" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B60" s="46" t="s">
+      <c r="B60" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="C60" s="47" t="s">
+      <c r="C60" s="46" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1631,20 +1631,20 @@
     <row r="62" spans="2:7" ht="15.75" customHeight="1"/>
     <row r="63" spans="2:7" ht="15.75" customHeight="1"/>
     <row r="64" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B64" s="48" t="s">
+      <c r="B64" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="C64" s="48"/>
-      <c r="D64" s="48"/>
-      <c r="G64" s="48" t="s">
+      <c r="C64" s="47"/>
+      <c r="D64" s="47"/>
+      <c r="G64" s="47" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B65" s="45" t="s">
+      <c r="B65" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="G65" s="49" t="s">
+      <c r="G65" s="48" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1660,9 +1660,9 @@
     <row r="75" spans="1:9" ht="15.75" customHeight="1"/>
     <row r="76" spans="1:9" ht="15.75" customHeight="1"/>
     <row r="77" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A77" s="17"/>
-      <c r="H77" s="17"/>
-      <c r="I77" s="17"/>
+      <c r="A77" s="16"/>
+      <c r="H77" s="16"/>
+      <c r="I77" s="16"/>
     </row>
     <row r="78" spans="1:9" ht="15.75" customHeight="1">
       <c r="H78" s="4"/>
@@ -1735,35 +1735,35 @@
     <row r="109" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="110" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="111" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B111" s="50" t="s">
+      <c r="B111" s="49" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="112" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="113" spans="2:2" ht="15.75" customHeight="1"/>
     <row r="114" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B114" s="47"/>
+      <c r="B114" s="46"/>
     </row>
     <row r="115" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B115" s="51"/>
+      <c r="B115" s="50"/>
     </row>
     <row r="116" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B116" s="47"/>
+      <c r="B116" s="46"/>
     </row>
     <row r="117" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B117" s="47"/>
+      <c r="B117" s="46"/>
     </row>
     <row r="118" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B118" s="51"/>
+      <c r="B118" s="50"/>
     </row>
     <row r="119" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B119" s="47"/>
+      <c r="B119" s="46"/>
     </row>
     <row r="120" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B120" s="47"/>
+      <c r="B120" s="46"/>
     </row>
     <row r="121" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B121" s="47"/>
+      <c r="B121" s="46"/>
     </row>
     <row r="122" spans="2:2" ht="15.75" customHeight="1"/>
     <row r="123" spans="2:2" ht="15.75" customHeight="1"/>
@@ -2645,8 +2645,11 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="B2:C5"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0" footer="0"/>
   <pageSetup scale="50" orientation="portrait" r:id="rId1"/>
